--- a/biology/Médecine/Santé_au_Groenland/Santé_au_Groenland.xlsx
+++ b/biology/Médecine/Santé_au_Groenland/Santé_au_Groenland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_au_Groenland</t>
+          <t>Santé_au_Groenland</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système de santé au Groenland est la responsabilité du gouvernement groenlandais et est gérée par l'Agence pour la santé et la prévention. Le Groenland a pris la responsabilité du système de santé du Danemark en 1992. Il y a un taux élevé de mortalité infantile et des taux élevés de décès dus à des causes non naturelles, en particulier des suicides et des accidents.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_au_Groenland</t>
+          <t>Santé_au_Groenland</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006, les soins de santé ont coûté 938 millions de couronnes danoises, soit 2 219 € par habitant, presque entièrement financés par l'État. Les soins de santé représentent plus de 18 % des dépenses publiques. Environ 28 % sont consacrés à l'hôpital Queen Ingrid, tandis que 12 % du budget est dédié à des traitements spécialisés en dehors du Groenland (y compris des délinquants criminels graves dans des services psychiatriques spécialisés). 6 % du budget total sont consacrés au transport des patients souffrant de blessures ou de maladies aiguës. Chaque district a un petit hôpital et il y a des dispensaires dans chaque village. La plupart des interventions chirurgicales non urgentes sont effectuées à l'hôpital Queen Ingrid. Il est difficile de recruter du personnel clinique, en particulier pour les régions les plus reculées[1].
-Il n'y a pas de services de santé privés, mais il y a des soins dentaires privés, de la physiothérapie, de la psychothérapie et des traitements pour l'alcoolisme et la toxicomanie à Nuuk[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, les soins de santé ont coûté 938 millions de couronnes danoises, soit 2 219 € par habitant, presque entièrement financés par l'État. Les soins de santé représentent plus de 18 % des dépenses publiques. Environ 28 % sont consacrés à l'hôpital Queen Ingrid, tandis que 12 % du budget est dédié à des traitements spécialisés en dehors du Groenland (y compris des délinquants criminels graves dans des services psychiatriques spécialisés). 6 % du budget total sont consacrés au transport des patients souffrant de blessures ou de maladies aiguës. Chaque district a un petit hôpital et il y a des dispensaires dans chaque village. La plupart des interventions chirurgicales non urgentes sont effectuées à l'hôpital Queen Ingrid. Il est difficile de recruter du personnel clinique, en particulier pour les régions les plus reculées.
+Il n'y a pas de services de santé privés, mais il y a des soins dentaires privés, de la physiothérapie, de la psychothérapie et des traitements pour l'alcoolisme et la toxicomanie à Nuuk.
 </t>
         </is>
       </c>
